--- a/biology/Botanique/Merveille_de_Lyon/Merveille_de_Lyon.xlsx
+++ b/biology/Botanique/Merveille_de_Lyon/Merveille_de_Lyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Merveille de Lyon' est un cultivar de rosier obtenu en 1882 par le rosiériste lyonnais  Pernet père. Il est issu d'un croisement 'Baronne Adolphe de Rothschild' (Pernet père, 1868) x 'Safrano' (Beauregard, 1839). C'est un rosier qui a connu un grand succès de la fin du XIXe siècle au début du XXe siècle[1].
+'Merveille de Lyon' est un cultivar de rosier obtenu en 1882 par le rosiériste lyonnais  Pernet père. Il est issu d'un croisement 'Baronne Adolphe de Rothschild' (Pernet père, 1868) x 'Safrano' (Beauregard, 1839). C'est un rosier qui a connu un grand succès de la fin du XIXe siècle au début du XXe siècle.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buisson de 'Merveille de Lyon' au feuillage dense et sombre et au port dressé élève ses rameaux épineux à 120 cm. Ses grosses fleurs blanches aux nuances rosées portent 26 à 40 pétales imbriqués en coupe[2]. Elles fleurissent en solitaire, longtemps en juin et plus discrètement en automne, et ressemblent à de grosses pivoines[3], dépassant 10 cm de diamètre[4].
-Ce rosier résiste bien au froid[5], sa zone de rusticité étant de 6b à 9b[2].
-Il est classé par le Journal des roses en 1896 comme l'une des meilleures variétés des vingt dernières années[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buisson de 'Merveille de Lyon' au feuillage dense et sombre et au port dressé élève ses rameaux épineux à 120 cm. Ses grosses fleurs blanches aux nuances rosées portent 26 à 40 pétales imbriqués en coupe. Elles fleurissent en solitaire, longtemps en juin et plus discrètement en automne, et ressemblent à de grosses pivoines, dépassant 10 cm de diamètre.
+Ce rosier résiste bien au froid, sa zone de rusticité étant de 6b à 9b.
+Il est classé par le Journal des roses en 1896 comme l'une des meilleures variétés des vingt dernières années.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">'Merveille de Lyon' a notamment donné naissance par croisement avec 'Madame Caroline Testout' au rosier blanc 'Frau Karl Druschki' (Lambert 1901).
 </t>
